--- a/productos.xlsx
+++ b/productos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
-    <t>Artículo</t>
-  </si>
-  <si>
     <t>Cantidad</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>31/12/2017</t>
+  </si>
+  <si>
+    <t>Articulo</t>
   </si>
 </sst>
 </file>
@@ -435,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -450,189 +448,189 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
